--- a/data/age_breakdown.xlsx
+++ b/data/age_breakdown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toddf\Documents\New NSS\DA9 Excel\norris_capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742944D2-1B88-4F71-BEAD-2DCFF240C9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796853E1-B265-46C4-AE91-D520DDBFAD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11025" yWindow="585" windowWidth="16950" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="360" windowWidth="18285" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Has MLB Team" sheetId="5" r:id="rId1"/>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D29931-91E1-4961-9626-88E0A5AE85E0}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +926,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+      <c r="B28" s="2">
+        <f>AVERAGE(B2:B27)</f>
+        <v>0.17894230769230768</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -937,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A176690-2584-4F04-B848-68F9EE01136D}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
